--- a/docs/UKCore-Patient-1-0-0.xlsx
+++ b/docs/UKCore-Patient-1-0-0.xlsx
@@ -160,7 +160,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.div.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>
@@ -178,7 +178,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -210,6 +210,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
     <t>Patient.implicitRules</t>
   </si>
   <si>
@@ -332,6 +336,10 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>Patient.modifierExtension</t>
   </si>
   <si>
@@ -392,10 +400,6 @@
     <t>Patient.identifier.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -510,7 +514,7 @@
     <t>Identifies the purpose for this identifier, if known .</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
   </si>
   <si>
     <t>Identifier.use</t>
@@ -752,7 +756,7 @@
     <t>The gender of a person used for administrative purposes.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/administrative-gender|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/administrative-gender|4.0.1</t>
   </si>
   <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/administrativeGender</t>
@@ -1104,10 +1108,6 @@
     <t>If a patient does not speak the local language, interpreters may be required, so languages spoken and proficiency are important things to keep track of both for patient and other persons of interest.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
     <t>LanguageCommunication</t>
   </si>
   <si>
@@ -1274,7 +1274,7 @@
     <t>The type of link between this patient resource and another patient resource.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/link-type|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/link-type|4.0.1</t>
   </si>
   <si>
     <t>typeCode</t>
@@ -1919,7 +1919,7 @@
         <v>44</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>44</v>
@@ -1939,7 +1939,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1962,16 +1962,16 @@
         <v>52</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2021,7 +2021,7 @@
         <v>44</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>42</v>
@@ -2033,7 +2033,7 @@
         <v>44</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>44</v>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2076,16 +2076,16 @@
         <v>44</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2111,13 +2111,13 @@
         <v>44</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>44</v>
@@ -2135,7 +2135,7 @@
         <v>44</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>42</v>
@@ -2147,7 +2147,7 @@
         <v>44</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>44</v>
@@ -2167,11 +2167,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2190,16 +2190,16 @@
         <v>44</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2249,7 +2249,7 @@
         <v>44</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>42</v>
@@ -2261,10 +2261,10 @@
         <v>44</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>44</v>
@@ -2281,11 +2281,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2304,16 +2304,16 @@
         <v>44</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2363,7 +2363,7 @@
         <v>44</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>42</v>
@@ -2378,7 +2378,7 @@
         <v>44</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>44</v>
@@ -2395,11 +2395,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2418,16 +2418,16 @@
         <v>44</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2477,7 +2477,7 @@
         <v>44</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>42</v>
@@ -2489,10 +2489,10 @@
         <v>44</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>44</v>
@@ -2509,11 +2509,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2532,19 +2532,19 @@
         <v>44</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>44</v>
@@ -2593,7 +2593,7 @@
         <v>44</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>42</v>
@@ -2605,10 +2605,10 @@
         <v>44</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>44</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2648,17 +2648,17 @@
         <v>52</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>44</v>
@@ -2695,17 +2695,17 @@
         <v>44</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>42</v>
@@ -2717,19 +2717,19 @@
         <v>44</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>44</v>
@@ -2737,10 +2737,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>44</v>
@@ -2762,17 +2762,17 @@
         <v>52</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>44</v>
@@ -2821,7 +2821,7 @@
         <v>44</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>42</v>
@@ -2833,19 +2833,19 @@
         <v>44</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>44</v>
@@ -2853,7 +2853,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2876,13 +2876,13 @@
         <v>44</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2933,7 +2933,7 @@
         <v>44</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>42</v>
@@ -2948,7 +2948,7 @@
         <v>44</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>44</v>
@@ -2965,7 +2965,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2988,13 +2988,13 @@
         <v>44</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3033,19 +3033,19 @@
         <v>44</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AC14" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
@@ -3057,7 +3057,7 @@
         <v>44</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>44</v>
@@ -3077,10 +3077,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>44</v>
@@ -3102,13 +3102,13 @@
         <v>44</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3159,7 +3159,7 @@
         <v>44</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
@@ -3171,7 +3171,7 @@
         <v>44</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>44</v>
@@ -3191,7 +3191,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3214,13 +3214,13 @@
         <v>44</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3271,7 +3271,7 @@
         <v>44</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -3286,7 +3286,7 @@
         <v>44</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>44</v>
@@ -3303,11 +3303,11 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3326,16 +3326,16 @@
         <v>44</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3373,19 +3373,19 @@
         <v>44</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
@@ -3397,10 +3397,10 @@
         <v>44</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>44</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3440,16 +3440,16 @@
         <v>44</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3457,7 +3457,7 @@
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="R18" t="s" s="2">
         <v>44</v>
@@ -3499,7 +3499,7 @@
         <v>44</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>51</v>
@@ -3514,7 +3514,7 @@
         <v>44</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>44</v>
@@ -3531,7 +3531,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3554,13 +3554,13 @@
         <v>44</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3587,13 +3587,13 @@
         <v>44</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>44</v>
@@ -3611,7 +3611,7 @@
         <v>44</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -3623,10 +3623,10 @@
         <v>44</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>44</v>
@@ -3643,7 +3643,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3666,19 +3666,19 @@
         <v>52</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>44</v>
@@ -3703,13 +3703,13 @@
         <v>44</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>44</v>
@@ -3727,7 +3727,7 @@
         <v>44</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -3739,10 +3739,10 @@
         <v>44</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>44</v>
@@ -3751,7 +3751,7 @@
         <v>44</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>44</v>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3782,19 +3782,19 @@
         <v>52</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>44</v>
@@ -3819,13 +3819,13 @@
         <v>44</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>44</v>
@@ -3843,7 +3843,7 @@
         <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -3855,10 +3855,10 @@
         <v>44</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>44</v>
@@ -3867,7 +3867,7 @@
         <v>44</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>44</v>
@@ -3875,7 +3875,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3898,19 +3898,19 @@
         <v>52</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>44</v>
@@ -3923,7 +3923,7 @@
         <v>44</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>44</v>
@@ -3959,7 +3959,7 @@
         <v>44</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -3971,10 +3971,10 @@
         <v>44</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>44</v>
@@ -3983,7 +3983,7 @@
         <v>44</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>44</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4014,16 +4014,16 @@
         <v>52</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4037,7 +4037,7 @@
         <v>44</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>44</v>
@@ -4073,7 +4073,7 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -4085,10 +4085,10 @@
         <v>44</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>44</v>
@@ -4097,7 +4097,7 @@
         <v>44</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>44</v>
@@ -4105,7 +4105,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4128,13 +4128,13 @@
         <v>52</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4185,7 +4185,7 @@
         <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -4197,10 +4197,10 @@
         <v>44</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>44</v>
@@ -4209,7 +4209,7 @@
         <v>44</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>44</v>
@@ -4217,7 +4217,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4240,16 +4240,16 @@
         <v>52</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4299,7 +4299,7 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4311,10 +4311,10 @@
         <v>44</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>44</v>
@@ -4323,7 +4323,7 @@
         <v>44</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>44</v>
@@ -4331,7 +4331,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4354,70 +4354,70 @@
         <v>52</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P26" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="Q26" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R26" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE26" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="K26" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P26" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="Q26" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R26" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S26" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T26" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4429,16 +4429,16 @@
         <v>44</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>44</v>
@@ -4449,7 +4449,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4472,19 +4472,19 @@
         <v>52</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>44</v>
@@ -4533,7 +4533,7 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4545,19 +4545,19 @@
         <v>44</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>44</v>
@@ -4565,7 +4565,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4588,19 +4588,19 @@
         <v>52</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>44</v>
@@ -4649,7 +4649,7 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4661,19 +4661,19 @@
         <v>44</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>44</v>
@@ -4681,7 +4681,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4704,19 +4704,19 @@
         <v>52</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>44</v>
@@ -4741,13 +4741,13 @@
         <v>44</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>44</v>
@@ -4765,7 +4765,7 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4777,19 +4777,19 @@
         <v>44</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>44</v>
@@ -4797,7 +4797,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4820,19 +4820,19 @@
         <v>52</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>44</v>
@@ -4881,7 +4881,7 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4893,27 +4893,27 @@
         <v>44</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4936,19 +4936,19 @@
         <v>52</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>44</v>
@@ -4997,7 +4997,7 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -5009,19 +5009,19 @@
         <v>44</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>44</v>
@@ -5029,7 +5029,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5052,19 +5052,19 @@
         <v>52</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>44</v>
@@ -5113,7 +5113,7 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5125,19 +5125,19 @@
         <v>44</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>44</v>
@@ -5145,7 +5145,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5168,17 +5168,17 @@
         <v>44</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>44</v>
@@ -5203,13 +5203,13 @@
         <v>44</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>44</v>
@@ -5227,7 +5227,7 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -5239,19 +5239,19 @@
         <v>44</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>44</v>
@@ -5259,7 +5259,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5282,19 +5282,19 @@
         <v>44</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>44</v>
@@ -5343,7 +5343,7 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5355,19 +5355,19 @@
         <v>44</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>44</v>
@@ -5375,7 +5375,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5398,19 +5398,19 @@
         <v>44</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>44</v>
@@ -5459,7 +5459,7 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5471,19 +5471,19 @@
         <v>44</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>44</v>
@@ -5491,7 +5491,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5514,19 +5514,19 @@
         <v>44</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>44</v>
@@ -5575,7 +5575,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5587,13 +5587,13 @@
         <v>44</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>44</v>
@@ -5607,7 +5607,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5630,13 +5630,13 @@
         <v>44</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5687,7 +5687,7 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5702,7 +5702,7 @@
         <v>44</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>44</v>
@@ -5719,11 +5719,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5742,16 +5742,16 @@
         <v>44</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5801,7 +5801,7 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -5813,10 +5813,10 @@
         <v>44</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>44</v>
@@ -5833,11 +5833,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5856,19 +5856,19 @@
         <v>52</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>44</v>
@@ -5917,7 +5917,7 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -5929,10 +5929,10 @@
         <v>44</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>44</v>
@@ -5949,7 +5949,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5972,17 +5972,17 @@
         <v>44</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>44</v>
@@ -6007,13 +6007,13 @@
         <v>44</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>44</v>
@@ -6031,7 +6031,7 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -6043,19 +6043,19 @@
         <v>44</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>44</v>
@@ -6063,7 +6063,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6086,17 +6086,17 @@
         <v>44</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>44</v>
@@ -6145,7 +6145,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6157,19 +6157,19 @@
         <v>44</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>44</v>
@@ -6177,7 +6177,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6200,19 +6200,19 @@
         <v>44</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>44</v>
@@ -6261,7 +6261,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6273,19 +6273,19 @@
         <v>44</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>44</v>
@@ -6293,7 +6293,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6316,17 +6316,17 @@
         <v>44</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>44</v>
@@ -6375,7 +6375,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6387,19 +6387,19 @@
         <v>44</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>44</v>
@@ -6407,7 +6407,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6430,17 +6430,17 @@
         <v>44</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>44</v>
@@ -6465,13 +6465,13 @@
         <v>44</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>44</v>
@@ -6489,7 +6489,7 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6501,19 +6501,19 @@
         <v>44</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>44</v>
@@ -6521,7 +6521,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6544,17 +6544,17 @@
         <v>44</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>44</v>
@@ -6603,7 +6603,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6612,22 +6612,22 @@
         <v>51</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>44</v>
@@ -6635,7 +6635,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6658,13 +6658,13 @@
         <v>44</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6715,7 +6715,7 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -6727,13 +6727,13 @@
         <v>44</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>44</v>
@@ -6747,7 +6747,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6770,19 +6770,19 @@
         <v>44</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>44</v>
@@ -6831,7 +6831,7 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -6843,7 +6843,7 @@
         <v>44</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>349</v>
+        <v>63</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>350</v>
@@ -6886,13 +6886,13 @@
         <v>44</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6943,7 +6943,7 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -6958,7 +6958,7 @@
         <v>44</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>44</v>
@@ -6979,7 +6979,7 @@
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -6998,16 +6998,16 @@
         <v>44</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7057,7 +7057,7 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7069,10 +7069,10 @@
         <v>44</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>44</v>
@@ -7093,7 +7093,7 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7112,19 +7112,19 @@
         <v>52</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>44</v>
@@ -7173,7 +7173,7 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7185,10 +7185,10 @@
         <v>44</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>44</v>
@@ -7228,7 +7228,7 @@
         <v>44</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>356</v>
@@ -7265,13 +7265,13 @@
         <v>44</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>44</v>
@@ -7301,7 +7301,7 @@
         <v>44</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>360</v>
@@ -7344,7 +7344,7 @@
         <v>44</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>364</v>
@@ -7417,7 +7417,7 @@
         <v>44</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>368</v>
@@ -7531,13 +7531,13 @@
         <v>44</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>377</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>44</v>
@@ -7574,7 +7574,7 @@
         <v>52</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>380</v>
@@ -7647,10 +7647,10 @@
         <v>44</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>384</v>
@@ -7690,7 +7690,7 @@
         <v>52</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K55" t="s" s="2">
         <v>386</v>
@@ -7763,13 +7763,13 @@
         <v>44</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>349</v>
+        <v>63</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>390</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>44</v>
@@ -7806,13 +7806,13 @@
         <v>44</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7863,7 +7863,7 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -7878,7 +7878,7 @@
         <v>44</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>44</v>
@@ -7899,7 +7899,7 @@
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7918,16 +7918,16 @@
         <v>44</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -7977,7 +7977,7 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -7989,10 +7989,10 @@
         <v>44</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>44</v>
@@ -8013,7 +8013,7 @@
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8032,19 +8032,19 @@
         <v>52</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>44</v>
@@ -8093,7 +8093,7 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -8105,10 +8105,10 @@
         <v>44</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>44</v>
@@ -8219,13 +8219,13 @@
         <v>44</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>44</v>
@@ -8262,7 +8262,7 @@
         <v>52</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>401</v>
@@ -8295,7 +8295,7 @@
         <v>44</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="X60" t="s" s="2">
         <v>402</v>
@@ -8331,13 +8331,13 @@
         <v>44</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>404</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>44</v>

--- a/docs/UKCore-Patient-1-0-0.xlsx
+++ b/docs/UKCore-Patient-1-0-0.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$56</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2176" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2034" uniqueCount="392">
   <si>
     <t>Path</t>
   </si>
@@ -444,88 +444,43 @@
     <t>The verification/tracing status of the NHS number.</t>
   </si>
   <si>
-    <t>Patient.identifier.extension.id</t>
-  </si>
-  <si>
-    <t>Patient.identifier.extension.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Patient.identifier.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>https://fhir.nhs.uk/R4/StructureDefinition/Extension-UKCore-NHSNumberVerificationStatus-1-0-0</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Patient.identifier.extension.value[x]</t>
+    <t>Patient.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Patient.identifier.type</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>Verification status of the NHS number</t>
-  </si>
-  <si>
-    <t>Verification status of the NHS number.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>NHS Number Verification Status</t>
-  </si>
-  <si>
-    <t>https://fhir.nhs.uk/R4/ValueSet/UKCore-NHSNumberVerificationStatus-1-0-0</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>Patient.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>Patient.identifier.type</t>
-  </si>
-  <si>
     <t>Description of identifier</t>
   </si>
   <si>
@@ -566,6 +521,9 @@
   </si>
   <si>
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>https://fhir.nhs.uk/Id/nhs-number</t>
   </si>
   <si>
     <t>http://www.acme.com/identifiers/patient</t>
@@ -959,6 +917,9 @@
   </si>
   <si>
     <t>Patient.contact.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Patient.contact.modifierExtension</t>
@@ -1426,7 +1387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN60"/>
+  <dimension ref="A1:AN56"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1459,7 +1420,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="70.09375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="52.27734375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
@@ -3208,22 +3169,26 @@
         <v>44</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O16" t="s" s="2">
         <v>44</v>
       </c>
@@ -3247,13 +3212,13 @@
         <v>44</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>44</v>
@@ -3271,7 +3236,7 @@
         <v>44</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -3283,10 +3248,10 @@
         <v>44</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>44</v>
@@ -3295,7 +3260,7 @@
         <v>44</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>44</v>
@@ -3303,18 +3268,18 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>44</v>
@@ -3323,21 +3288,23 @@
         <v>44</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>97</v>
+        <v>147</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>44</v>
       </c>
@@ -3361,46 +3328,46 @@
         <v>44</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>44</v>
+        <v>153</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>44</v>
+        <v>154</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>44</v>
@@ -3409,7 +3376,7 @@
         <v>44</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>44</v>
+        <v>156</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>44</v>
@@ -3417,7 +3384,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3437,33 +3404,35 @@
         <v>44</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>65</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="R18" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>44</v>
@@ -3499,10 +3468,10 @@
         <v>44</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>51</v>
@@ -3511,10 +3480,10 @@
         <v>44</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>94</v>
+        <v>165</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>44</v>
@@ -3523,7 +3492,7 @@
         <v>44</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>44</v>
+        <v>166</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>44</v>
@@ -3531,7 +3500,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3551,18 +3520,20 @@
         <v>44</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>146</v>
+        <v>53</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>44</v>
@@ -3575,7 +3546,7 @@
         <v>44</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>44</v>
+        <v>171</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>44</v>
@@ -3587,13 +3558,13 @@
         <v>44</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>149</v>
+        <v>44</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>151</v>
+        <v>44</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>44</v>
@@ -3611,7 +3582,7 @@
         <v>44</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -3626,7 +3597,7 @@
         <v>63</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>94</v>
+        <v>173</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>44</v>
@@ -3635,7 +3606,7 @@
         <v>44</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>44</v>
@@ -3643,7 +3614,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3660,26 +3631,22 @@
         <v>44</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>71</v>
+        <v>176</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>44</v>
       </c>
@@ -3703,13 +3670,13 @@
         <v>44</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>149</v>
+        <v>44</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>158</v>
+        <v>44</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>159</v>
+        <v>44</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>44</v>
@@ -3727,7 +3694,7 @@
         <v>44</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -3742,7 +3709,7 @@
         <v>63</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>44</v>
@@ -3751,7 +3718,7 @@
         <v>44</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>44</v>
@@ -3759,7 +3726,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3782,20 +3749,18 @@
         <v>52</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>44</v>
       </c>
@@ -3819,13 +3784,13 @@
         <v>44</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>167</v>
+        <v>44</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>169</v>
+        <v>44</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>44</v>
@@ -3843,7 +3808,7 @@
         <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -3858,7 +3823,7 @@
         <v>63</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>44</v>
@@ -3867,7 +3832,7 @@
         <v>44</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>44</v>
@@ -3875,7 +3840,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3883,7 +3848,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>51</v>
@@ -3892,30 +3857,32 @@
         <v>44</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>65</v>
+        <v>191</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P22" s="2"/>
+      <c r="P22" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="Q22" t="s" s="2">
         <v>44</v>
       </c>
@@ -3923,7 +3890,7 @@
         <v>44</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>177</v>
+        <v>44</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>44</v>
@@ -3959,7 +3926,7 @@
         <v>44</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -3974,16 +3941,16 @@
         <v>63</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>44</v>
+        <v>198</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>180</v>
+        <v>44</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>44</v>
@@ -3991,7 +3958,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3999,10 +3966,10 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>44</v>
@@ -4014,18 +3981,20 @@
         <v>52</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>44</v>
       </c>
@@ -4037,7 +4006,7 @@
         <v>44</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>185</v>
+        <v>44</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>44</v>
@@ -4073,13 +4042,13 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>44</v>
@@ -4088,16 +4057,16 @@
         <v>63</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>44</v>
@@ -4105,7 +4074,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4116,7 +4085,7 @@
         <v>42</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>44</v>
@@ -4128,16 +4097,20 @@
         <v>52</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>44</v>
       </c>
@@ -4185,13 +4158,13 @@
         <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>44</v>
@@ -4200,16 +4173,16 @@
         <v>63</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>44</v>
+        <v>215</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>44</v>
@@ -4217,7 +4190,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4240,18 +4213,20 @@
         <v>52</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>197</v>
+        <v>71</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>44</v>
       </c>
@@ -4275,13 +4250,13 @@
         <v>44</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>44</v>
+        <v>222</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>44</v>
+        <v>223</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>44</v>
@@ -4299,7 +4274,7 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4314,16 +4289,16 @@
         <v>63</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>44</v>
+        <v>225</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>44</v>
@@ -4331,7 +4306,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4348,32 +4323,30 @@
         <v>44</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P26" t="s" s="2">
-        <v>210</v>
-      </c>
+      <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
         <v>44</v>
       </c>
@@ -4417,7 +4390,7 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4432,24 +4405,24 @@
         <v>63</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>125</v>
+        <v>234</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>212</v>
+        <v>44</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>44</v>
+        <v>235</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>44</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4460,31 +4433,31 @@
         <v>42</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>44</v>
@@ -4533,13 +4506,13 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>44</v>
@@ -4548,16 +4521,16 @@
         <v>63</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>220</v>
+        <v>125</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>44</v>
@@ -4565,7 +4538,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4588,19 +4561,19 @@
         <v>52</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>44</v>
@@ -4649,7 +4622,7 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4664,16 +4637,16 @@
         <v>63</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>44</v>
@@ -4681,7 +4654,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4701,22 +4674,20 @@
         <v>44</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>71</v>
+        <v>147</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>44</v>
@@ -4741,13 +4712,13 @@
         <v>44</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>44</v>
@@ -4765,7 +4736,7 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4780,16 +4751,16 @@
         <v>63</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>44</v>
@@ -4797,7 +4768,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4817,22 +4788,22 @@
         <v>44</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>44</v>
@@ -4881,7 +4852,7 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4896,24 +4867,24 @@
         <v>63</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>248</v>
+        <v>125</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>250</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4924,31 +4895,31 @@
         <v>42</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>44</v>
@@ -4997,13 +4968,13 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>44</v>
@@ -5012,7 +4983,7 @@
         <v>63</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>125</v>
@@ -5021,7 +4992,7 @@
         <v>44</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>44</v>
@@ -5029,7 +5000,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5049,22 +5020,22 @@
         <v>44</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>44</v>
@@ -5113,7 +5084,7 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5125,19 +5096,19 @@
         <v>44</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>63</v>
+        <v>284</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>265</v>
+        <v>125</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>266</v>
+        <v>44</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>44</v>
@@ -5145,7 +5116,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5168,18 +5139,16 @@
         <v>44</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>146</v>
+        <v>53</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>268</v>
+        <v>122</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>269</v>
+        <v>123</v>
       </c>
       <c r="M33" s="2"/>
-      <c r="N33" t="s" s="2">
-        <v>270</v>
-      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>44</v>
       </c>
@@ -5203,13 +5172,13 @@
         <v>44</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>167</v>
+        <v>44</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>271</v>
+        <v>44</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>272</v>
+        <v>44</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>44</v>
@@ -5227,7 +5196,7 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>267</v>
+        <v>124</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -5239,19 +5208,19 @@
         <v>44</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>273</v>
+        <v>125</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>274</v>
+        <v>44</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>275</v>
+        <v>44</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>44</v>
@@ -5259,18 +5228,18 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>44</v>
@@ -5282,20 +5251,18 @@
         <v>44</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>277</v>
+        <v>97</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>278</v>
+        <v>98</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>44</v>
       </c>
@@ -5343,31 +5310,31 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>276</v>
+        <v>131</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>282</v>
+        <v>125</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>283</v>
+        <v>44</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>44</v>
@@ -5375,11 +5342,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>44</v>
+        <v>290</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5392,25 +5359,25 @@
         <v>44</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>285</v>
+        <v>97</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>288</v>
+        <v>100</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>289</v>
+        <v>106</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>44</v>
@@ -5459,7 +5426,7 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5471,19 +5438,19 @@
         <v>44</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>290</v>
+        <v>94</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>291</v>
+        <v>44</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>44</v>
@@ -5491,7 +5458,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5514,17 +5481,15 @@
         <v>44</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>293</v>
+        <v>147</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M36" t="s" s="2">
         <v>296</v>
       </c>
+      <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
         <v>297</v>
       </c>
@@ -5551,13 +5516,13 @@
         <v>44</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>44</v>
+        <v>298</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>44</v>
+        <v>299</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>44</v>
@@ -5575,7 +5540,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5587,10 +5552,10 @@
         <v>44</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>298</v>
+        <v>63</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>125</v>
@@ -5599,7 +5564,7 @@
         <v>44</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>44</v>
+        <v>301</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>44</v>
@@ -5607,7 +5572,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5630,16 +5595,18 @@
         <v>44</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>122</v>
+        <v>303</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>123</v>
+        <v>304</v>
       </c>
       <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+      <c r="N37" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>44</v>
       </c>
@@ -5687,7 +5654,7 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>124</v>
+        <v>302</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5699,19 +5666,19 @@
         <v>44</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="AK37" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AL37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>44</v>
+        <v>306</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>44</v>
@@ -5719,11 +5686,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5742,18 +5709,20 @@
         <v>44</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>97</v>
+        <v>209</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>98</v>
+        <v>308</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>138</v>
+        <v>309</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>44</v>
       </c>
@@ -5801,7 +5770,7 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>131</v>
+        <v>307</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -5813,19 +5782,19 @@
         <v>44</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="AK38" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AL38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>44</v>
+        <v>311</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>44</v>
@@ -5833,42 +5802,40 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>303</v>
+        <v>44</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>97</v>
+        <v>246</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>106</v>
+        <v>315</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>44</v>
@@ -5917,31 +5884,31 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>94</v>
+        <v>250</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>44</v>
+        <v>316</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>44</v>
@@ -5949,7 +5916,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5960,7 +5927,7 @@
         <v>42</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>44</v>
@@ -5972,17 +5939,17 @@
         <v>44</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>146</v>
+        <v>71</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>308</v>
+        <v>218</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>44</v>
@@ -6007,13 +5974,13 @@
         <v>44</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>311</v>
+        <v>222</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>312</v>
+        <v>223</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>44</v>
@@ -6031,13 +5998,13 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>44</v>
@@ -6046,7 +6013,7 @@
         <v>63</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>313</v>
+        <v>224</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>125</v>
@@ -6055,7 +6022,7 @@
         <v>44</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>44</v>
@@ -6063,7 +6030,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6086,17 +6053,17 @@
         <v>44</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>44</v>
@@ -6145,7 +6112,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6154,13 +6121,13 @@
         <v>51</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>44</v>
+        <v>325</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>63</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>219</v>
+        <v>326</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>125</v>
@@ -6169,7 +6136,7 @@
         <v>44</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>44</v>
@@ -6177,7 +6144,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6188,7 +6155,7 @@
         <v>42</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>44</v>
@@ -6200,20 +6167,16 @@
         <v>44</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>223</v>
+        <v>176</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>44</v>
       </c>
@@ -6261,13 +6224,13 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>44</v>
@@ -6276,7 +6239,7 @@
         <v>63</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>228</v>
+        <v>331</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>125</v>
@@ -6285,7 +6248,7 @@
         <v>44</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>324</v>
+        <v>44</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>44</v>
@@ -6293,7 +6256,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6304,7 +6267,7 @@
         <v>42</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>44</v>
@@ -6316,17 +6279,19 @@
         <v>44</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="N43" t="s" s="2">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>44</v>
@@ -6375,13 +6340,13 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>44</v>
@@ -6390,16 +6355,16 @@
         <v>63</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>264</v>
+        <v>337</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>125</v>
+        <v>338</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>329</v>
+        <v>44</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>44</v>
@@ -6407,7 +6372,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6430,18 +6395,16 @@
         <v>44</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>232</v>
+        <v>122</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>331</v>
+        <v>123</v>
       </c>
       <c r="M44" s="2"/>
-      <c r="N44" t="s" s="2">
-        <v>332</v>
-      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>44</v>
       </c>
@@ -6465,13 +6428,13 @@
         <v>44</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>149</v>
+        <v>44</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>236</v>
+        <v>44</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>237</v>
+        <v>44</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>44</v>
@@ -6489,7 +6452,7 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>330</v>
+        <v>124</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6501,19 +6464,19 @@
         <v>44</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>238</v>
+        <v>125</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>333</v>
+        <v>44</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>44</v>
@@ -6521,18 +6484,18 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>44</v>
@@ -6544,18 +6507,18 @@
         <v>44</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>197</v>
+        <v>97</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>335</v>
+        <v>98</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>44</v>
       </c>
@@ -6603,31 +6566,31 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>334</v>
+        <v>131</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>338</v>
+        <v>44</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>339</v>
+        <v>125</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>340</v>
+        <v>44</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>44</v>
@@ -6639,35 +6602,39 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>44</v>
+        <v>290</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>190</v>
+        <v>97</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>342</v>
+        <v>291</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>44</v>
       </c>
@@ -6715,25 +6682,25 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>341</v>
+        <v>293</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>344</v>
+        <v>94</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>44</v>
@@ -6747,7 +6714,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6755,10 +6722,10 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>44</v>
@@ -6770,19 +6737,19 @@
         <v>44</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>293</v>
+        <v>147</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N47" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>44</v>
@@ -6807,13 +6774,13 @@
         <v>44</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>44</v>
@@ -6831,13 +6798,13 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>44</v>
@@ -6846,16 +6813,16 @@
         <v>63</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>44</v>
+        <v>349</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>44</v>
@@ -6863,7 +6830,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6886,16 +6853,20 @@
         <v>44</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>53</v>
+        <v>191</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>122</v>
+        <v>351</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>44</v>
       </c>
@@ -6943,7 +6914,7 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>124</v>
+        <v>350</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -6955,19 +6926,19 @@
         <v>44</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>125</v>
+        <v>355</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>44</v>
+        <v>356</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>44</v>
+        <v>357</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>44</v>
@@ -6975,11 +6946,11 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>96</v>
+        <v>359</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -6998,16 +6969,16 @@
         <v>44</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>97</v>
+        <v>360</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>98</v>
+        <v>361</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>138</v>
+        <v>362</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>100</v>
+        <v>363</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7057,7 +7028,7 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>131</v>
+        <v>358</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7069,19 +7040,19 @@
         <v>44</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AK49" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="AK49" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AL49" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>44</v>
+        <v>365</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>44</v>
@@ -7089,42 +7060,42 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>303</v>
+        <v>44</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>97</v>
+        <v>183</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>304</v>
+        <v>367</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>305</v>
+        <v>368</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>100</v>
+        <v>369</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>106</v>
+        <v>370</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>44</v>
@@ -7173,25 +7144,25 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>306</v>
+        <v>366</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>94</v>
+        <v>326</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>44</v>
+        <v>371</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>44</v>
@@ -7205,7 +7176,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7213,34 +7184,34 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>146</v>
+        <v>279</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>44</v>
@@ -7265,13 +7236,13 @@
         <v>44</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>44</v>
@@ -7289,13 +7260,13 @@
         <v>44</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>44</v>
@@ -7304,16 +7275,16 @@
         <v>63</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>361</v>
+        <v>125</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>362</v>
+        <v>44</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>44</v>
@@ -7321,7 +7292,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7344,20 +7315,16 @@
         <v>44</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>205</v>
+        <v>53</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>364</v>
+        <v>122</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>44</v>
       </c>
@@ -7405,7 +7372,7 @@
         <v>44</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>363</v>
+        <v>124</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7417,19 +7384,19 @@
         <v>44</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>368</v>
+        <v>125</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>369</v>
+        <v>44</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>370</v>
+        <v>44</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>44</v>
@@ -7437,11 +7404,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>372</v>
+        <v>96</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7460,16 +7427,16 @@
         <v>44</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>373</v>
+        <v>97</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>374</v>
+        <v>98</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>375</v>
+        <v>288</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>376</v>
+        <v>100</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7519,7 +7486,7 @@
         <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>371</v>
+        <v>131</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -7531,19 +7498,19 @@
         <v>44</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>377</v>
+        <v>125</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>378</v>
+        <v>44</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>44</v>
@@ -7551,42 +7518,42 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>44</v>
+        <v>290</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>197</v>
+        <v>97</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>380</v>
+        <v>291</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>381</v>
+        <v>292</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>382</v>
+        <v>100</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>383</v>
+        <v>106</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>44</v>
@@ -7635,25 +7602,25 @@
         <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>379</v>
+        <v>293</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>339</v>
+        <v>94</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>384</v>
+        <v>44</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>44</v>
@@ -7667,7 +7634,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7675,35 +7642,33 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>293</v>
+        <v>382</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>389</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>44</v>
       </c>
@@ -7751,13 +7716,13 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>44</v>
@@ -7766,7 +7731,7 @@
         <v>63</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>390</v>
+        <v>115</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>125</v>
@@ -7775,7 +7740,7 @@
         <v>44</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>44</v>
+        <v>386</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>44</v>
@@ -7783,7 +7748,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7791,7 +7756,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>51</v>
@@ -7803,16 +7768,16 @@
         <v>44</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>122</v>
+        <v>388</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>123</v>
+        <v>389</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7839,13 +7804,13 @@
         <v>44</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>44</v>
+        <v>389</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>44</v>
+        <v>390</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>44</v>
@@ -7863,10 +7828,10 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>124</v>
+        <v>387</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>51</v>
@@ -7875,14 +7840,14 @@
         <v>44</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AJ56" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AK56" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="AK56" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AL56" t="s" s="2">
         <v>44</v>
       </c>
@@ -7890,467 +7855,11 @@
         <v>44</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="57" hidden="true">
-      <c r="A57" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F57" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P57" s="2"/>
-      <c r="Q57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="58" hidden="true">
-      <c r="A58" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F58" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P58" s="2"/>
-      <c r="Q58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="59" hidden="true">
-      <c r="A59" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="F59" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P59" s="2"/>
-      <c r="Q59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="60" hidden="true">
-      <c r="A60" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="C60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="F60" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="O60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P60" s="2"/>
-      <c r="Q60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN60" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN60">
+  <autoFilter ref="A1:AN56">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8360,7 +7869,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI59">
+  <conditionalFormatting sqref="A2:AI55">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/UKCore-Patient-1-0-0.xlsx
+++ b/docs/UKCore-Patient-1-0-0.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2034" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="392">
   <si>
     <t>Path</t>
   </si>
@@ -711,10 +711,7 @@
     <t>Needed for identification of the individual, in combination with (at least) name and birth date.</t>
   </si>
   <si>
-    <t>The gender of a person used for administrative purposes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/administrative-gender|4.0.1</t>
+    <t>https://fhir.nhs.uk/R4/ValueSet/UKCore-NHSDataDictionary-PersonStatedGender-1-0-0</t>
   </si>
   <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/administrativeGender</t>
@@ -819,10 +816,7 @@
     <t>Most, if not all systems capture it.</t>
   </si>
   <si>
-    <t>The domestic partnership status of a person.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/marital-status</t>
+    <t>https://fhir.nhs.uk/R4/ValueSet/UKCore-NHSDataDictionary-PersonMaritalStatus-1-0-0</t>
   </si>
   <si>
     <t>player[classCode=PSN]/maritalStatusCode</t>
@@ -1015,6 +1009,12 @@
   </si>
   <si>
     <t>Needed to address the person correctly.</t>
+  </si>
+  <si>
+    <t>The gender of a person used for administrative purposes.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/administrative-gender|4.0.1</t>
   </si>
   <si>
     <t>NK1-15</t>
@@ -1420,7 +1420,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.27734375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="79.51171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
@@ -4252,11 +4252,9 @@
       <c r="W25" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="X25" t="s" s="2">
+      <c r="X25" s="2"/>
+      <c r="Y25" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>44</v>
@@ -4289,16 +4287,16 @@
         <v>63</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>44</v>
@@ -4306,7 +4304,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4329,19 +4327,19 @@
         <v>52</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>44</v>
@@ -4390,7 +4388,7 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4405,24 +4403,24 @@
         <v>63</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AL26" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="AL26" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>236</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4445,19 +4443,19 @@
         <v>52</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>44</v>
@@ -4506,7 +4504,7 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4521,7 +4519,7 @@
         <v>63</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>125</v>
@@ -4530,7 +4528,7 @@
         <v>44</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>44</v>
@@ -4538,7 +4536,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4561,19 +4559,19 @@
         <v>52</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="L28" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>44</v>
@@ -4622,7 +4620,7 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4637,16 +4635,16 @@
         <v>63</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AK28" t="s" s="2">
+      <c r="AL28" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>44</v>
@@ -4654,7 +4652,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4680,14 +4678,14 @@
         <v>147</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>44</v>
@@ -4714,11 +4712,9 @@
       <c r="W29" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="X29" t="s" s="2">
-        <v>257</v>
-      </c>
+      <c r="X29" s="2"/>
       <c r="Y29" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>44</v>
@@ -4736,7 +4732,7 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4751,16 +4747,16 @@
         <v>63</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>44</v>
@@ -4768,7 +4764,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4791,19 +4787,19 @@
         <v>44</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>44</v>
@@ -4852,7 +4848,7 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4867,7 +4863,7 @@
         <v>63</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>125</v>
@@ -4876,7 +4872,7 @@
         <v>44</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>44</v>
@@ -4884,7 +4880,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4907,19 +4903,19 @@
         <v>44</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>44</v>
@@ -4968,7 +4964,7 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -4983,7 +4979,7 @@
         <v>63</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>125</v>
@@ -4992,7 +4988,7 @@
         <v>44</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>44</v>
@@ -5000,7 +4996,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5023,19 +5019,19 @@
         <v>44</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>44</v>
@@ -5084,7 +5080,7 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5096,10 +5092,10 @@
         <v>44</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>125</v>
@@ -5116,7 +5112,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5228,7 +5224,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5257,7 +5253,7 @@
         <v>98</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>100</v>
@@ -5342,11 +5338,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5368,10 +5364,10 @@
         <v>97</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>100</v>
@@ -5426,7 +5422,7 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5458,7 +5454,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5484,14 +5480,14 @@
         <v>147</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>44</v>
@@ -5519,10 +5515,10 @@
         <v>152</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>44</v>
@@ -5540,7 +5536,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5555,7 +5551,7 @@
         <v>63</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>125</v>
@@ -5564,7 +5560,7 @@
         <v>44</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>44</v>
@@ -5572,7 +5568,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5598,14 +5594,14 @@
         <v>200</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>44</v>
@@ -5654,7 +5650,7 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5678,7 +5674,7 @@
         <v>44</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>44</v>
@@ -5686,7 +5682,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5712,13 +5708,13 @@
         <v>209</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="N38" t="s" s="2">
         <v>213</v>
@@ -5770,7 +5766,7 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -5794,7 +5790,7 @@
         <v>44</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>44</v>
@@ -5802,7 +5798,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5825,17 +5821,17 @@
         <v>44</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>44</v>
@@ -5884,7 +5880,7 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -5899,7 +5895,7 @@
         <v>63</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>125</v>
@@ -5908,7 +5904,7 @@
         <v>44</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>44</v>
@@ -5916,7 +5912,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5945,11 +5941,11 @@
         <v>218</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>44</v>
@@ -5977,10 +5973,10 @@
         <v>141</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>222</v>
+        <v>318</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>223</v>
+        <v>319</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>44</v>
@@ -5998,7 +5994,7 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -6013,7 +6009,7 @@
         <v>63</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>125</v>
@@ -6279,7 +6275,7 @@
         <v>44</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>333</v>
@@ -6513,7 +6509,7 @@
         <v>98</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>100</v>
@@ -6602,7 +6598,7 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6624,10 +6620,10 @@
         <v>97</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>100</v>
@@ -6682,7 +6678,7 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -7199,7 +7195,7 @@
         <v>52</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>373</v>
@@ -7433,7 +7429,7 @@
         <v>98</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>100</v>
@@ -7522,7 +7518,7 @@
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7544,10 +7540,10 @@
         <v>97</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>100</v>
@@ -7602,7 +7598,7 @@
         <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>

--- a/docs/UKCore-Patient-1-0-0.xlsx
+++ b/docs/UKCore-Patient-1-0-0.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2034" uniqueCount="392">
   <si>
     <t>Path</t>
   </si>
@@ -587,7 +587,7 @@
     <t>Patient.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(https://fhir.nhs.uk/R4/StructureDefinition/UKCore-Organization-1-0-0)
 </t>
   </si>
   <si>
@@ -711,7 +711,10 @@
     <t>Needed for identification of the individual, in combination with (at least) name and birth date.</t>
   </si>
   <si>
-    <t>https://fhir.nhs.uk/R4/ValueSet/UKCore-NHSDataDictionary-PersonStatedGender-1-0-0</t>
+    <t>The gender of a person used for administrative purposes.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/administrative-gender|4.0.1</t>
   </si>
   <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/administrativeGender</t>
@@ -816,7 +819,10 @@
     <t>Most, if not all systems capture it.</t>
   </si>
   <si>
-    <t>https://fhir.nhs.uk/R4/ValueSet/UKCore-NHSDataDictionary-PersonMaritalStatus-1-0-0</t>
+    <t>The domestic partnership status of a person.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/marital-status</t>
   </si>
   <si>
     <t>player[classCode=PSN]/maritalStatusCode</t>
@@ -1011,12 +1017,6 @@
     <t>Needed to address the person correctly.</t>
   </si>
   <si>
-    <t>The gender of a person used for administrative purposes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/administrative-gender|4.0.1</t>
-  </si>
-  <si>
     <t>NK1-15</t>
   </si>
   <si>
@@ -1139,7 +1139,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|Practitioner|PractitionerRole)
+    <t xml:space="preserve">Reference(PractitionerRole|https://fhir.nhs.uk/R4/StructureDefinition/UKCore-Practitioner-1-0-0|https://fhir.nhs.uk/R4/StructureDefinition/UKCore-Organization-1-0-0)
 </t>
   </si>
   <si>
@@ -1210,7 +1210,7 @@
     <t>Patient.link.other</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(RelatedPerson|https://fhir.nhs.uk/R4/StructureDefinition/UKCore-Patient-1-0-0)
 </t>
   </si>
   <si>
@@ -1420,7 +1420,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="79.51171875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="52.27734375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
@@ -4252,9 +4252,11 @@
       <c r="W25" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="X25" s="2"/>
+      <c r="X25" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="Y25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>44</v>
@@ -4287,16 +4289,16 @@
         <v>63</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>44</v>
@@ -4304,7 +4306,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4327,19 +4329,19 @@
         <v>52</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>44</v>
@@ -4388,7 +4390,7 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4403,24 +4405,24 @@
         <v>63</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4443,19 +4445,19 @@
         <v>52</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>44</v>
@@ -4504,7 +4506,7 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4519,7 +4521,7 @@
         <v>63</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>125</v>
@@ -4528,7 +4530,7 @@
         <v>44</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>44</v>
@@ -4536,7 +4538,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4559,19 +4561,19 @@
         <v>52</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>44</v>
@@ -4620,7 +4622,7 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4635,16 +4637,16 @@
         <v>63</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>44</v>
@@ -4652,7 +4654,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4678,14 +4680,14 @@
         <v>147</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>44</v>
@@ -4712,9 +4714,11 @@
       <c r="W29" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="X29" s="2"/>
+      <c r="X29" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="Y29" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>44</v>
@@ -4732,7 +4736,7 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4747,16 +4751,16 @@
         <v>63</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>44</v>
@@ -4764,7 +4768,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4787,19 +4791,19 @@
         <v>44</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>44</v>
@@ -4848,7 +4852,7 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4863,7 +4867,7 @@
         <v>63</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>125</v>
@@ -4872,7 +4876,7 @@
         <v>44</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>44</v>
@@ -4880,7 +4884,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4903,19 +4907,19 @@
         <v>44</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>44</v>
@@ -4964,7 +4968,7 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -4979,7 +4983,7 @@
         <v>63</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>125</v>
@@ -4988,7 +4992,7 @@
         <v>44</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>44</v>
@@ -4996,7 +5000,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5019,19 +5023,19 @@
         <v>44</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>44</v>
@@ -5080,7 +5084,7 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5092,10 +5096,10 @@
         <v>44</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>125</v>
@@ -5112,7 +5116,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5224,7 +5228,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5253,7 +5257,7 @@
         <v>98</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>100</v>
@@ -5338,11 +5342,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5364,10 +5368,10 @@
         <v>97</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>100</v>
@@ -5422,7 +5426,7 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5454,7 +5458,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5480,14 +5484,14 @@
         <v>147</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>44</v>
@@ -5515,10 +5519,10 @@
         <v>152</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>44</v>
@@ -5536,7 +5540,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5551,7 +5555,7 @@
         <v>63</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>125</v>
@@ -5560,7 +5564,7 @@
         <v>44</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>44</v>
@@ -5568,7 +5572,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5594,14 +5598,14 @@
         <v>200</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>44</v>
@@ -5650,7 +5654,7 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5674,7 +5678,7 @@
         <v>44</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>44</v>
@@ -5682,7 +5686,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5708,13 +5712,13 @@
         <v>209</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="N38" t="s" s="2">
         <v>213</v>
@@ -5766,7 +5770,7 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -5790,7 +5794,7 @@
         <v>44</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>44</v>
@@ -5798,7 +5802,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5821,17 +5825,17 @@
         <v>44</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>44</v>
@@ -5880,7 +5884,7 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -5895,7 +5899,7 @@
         <v>63</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>125</v>
@@ -5904,7 +5908,7 @@
         <v>44</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>44</v>
@@ -5912,7 +5916,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5941,11 +5945,11 @@
         <v>218</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>44</v>
@@ -5973,10 +5977,10 @@
         <v>141</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>318</v>
+        <v>222</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>44</v>
@@ -5994,7 +5998,7 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -6009,7 +6013,7 @@
         <v>63</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>125</v>
@@ -6275,7 +6279,7 @@
         <v>44</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>333</v>
@@ -6509,7 +6513,7 @@
         <v>98</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>100</v>
@@ -6598,7 +6602,7 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6620,10 +6624,10 @@
         <v>97</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>100</v>
@@ -6678,7 +6682,7 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -7195,7 +7199,7 @@
         <v>52</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>373</v>
@@ -7429,7 +7433,7 @@
         <v>98</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>100</v>
@@ -7518,7 +7522,7 @@
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7540,10 +7544,10 @@
         <v>97</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>100</v>
@@ -7598,7 +7602,7 @@
         <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>

--- a/docs/UKCore-Patient-1-0-0.xlsx
+++ b/docs/UKCore-Patient-1-0-0.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2034" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="393">
   <si>
     <t>Path</t>
   </si>
@@ -711,10 +711,7 @@
     <t>Needed for identification of the individual, in combination with (at least) name and birth date.</t>
   </si>
   <si>
-    <t>The gender of a person used for administrative purposes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/administrative-gender|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/administrative-gender</t>
   </si>
   <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/administrativeGender</t>
@@ -1015,6 +1012,12 @@
   </si>
   <si>
     <t>Needed to address the person correctly.</t>
+  </si>
+  <si>
+    <t>The gender of a person used for administrative purposes.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/administrative-gender|4.0.1</t>
   </si>
   <si>
     <t>NK1-15</t>
@@ -4252,11 +4255,9 @@
       <c r="W25" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="X25" t="s" s="2">
+      <c r="X25" s="2"/>
+      <c r="Y25" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>44</v>
@@ -4289,16 +4290,16 @@
         <v>63</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>44</v>
@@ -4306,7 +4307,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4329,19 +4330,19 @@
         <v>52</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>44</v>
@@ -4390,7 +4391,7 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4405,24 +4406,24 @@
         <v>63</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AL26" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="AL26" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>236</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4445,19 +4446,19 @@
         <v>52</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>44</v>
@@ -4506,7 +4507,7 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4521,7 +4522,7 @@
         <v>63</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>125</v>
@@ -4530,7 +4531,7 @@
         <v>44</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>44</v>
@@ -4538,7 +4539,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4561,19 +4562,19 @@
         <v>52</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="L28" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>44</v>
@@ -4622,7 +4623,7 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4637,16 +4638,16 @@
         <v>63</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AK28" t="s" s="2">
+      <c r="AL28" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>44</v>
@@ -4654,7 +4655,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4680,14 +4681,14 @@
         <v>147</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>44</v>
@@ -4715,11 +4716,11 @@
         <v>152</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="Y29" t="s" s="2">
-        <v>258</v>
-      </c>
       <c r="Z29" t="s" s="2">
         <v>44</v>
       </c>
@@ -4736,7 +4737,7 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4751,16 +4752,16 @@
         <v>63</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AL29" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>44</v>
@@ -4768,7 +4769,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4791,19 +4792,19 @@
         <v>44</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>44</v>
@@ -4852,7 +4853,7 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4867,7 +4868,7 @@
         <v>63</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>125</v>
@@ -4876,7 +4877,7 @@
         <v>44</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>44</v>
@@ -4884,7 +4885,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4907,19 +4908,19 @@
         <v>44</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>44</v>
@@ -4968,7 +4969,7 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -4983,7 +4984,7 @@
         <v>63</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>125</v>
@@ -4992,7 +4993,7 @@
         <v>44</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>44</v>
@@ -5000,7 +5001,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5023,19 +5024,19 @@
         <v>44</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>44</v>
@@ -5084,7 +5085,7 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5096,10 +5097,10 @@
         <v>44</v>
       </c>
       <c r="AI32" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>125</v>
@@ -5116,7 +5117,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5228,7 +5229,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5257,7 +5258,7 @@
         <v>98</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>100</v>
@@ -5342,11 +5343,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5368,10 +5369,10 @@
         <v>97</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>100</v>
@@ -5426,7 +5427,7 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5458,7 +5459,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5484,14 +5485,14 @@
         <v>147</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>44</v>
@@ -5519,11 +5520,11 @@
         <v>152</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="Y36" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="Y36" t="s" s="2">
-        <v>299</v>
-      </c>
       <c r="Z36" t="s" s="2">
         <v>44</v>
       </c>
@@ -5540,7 +5541,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5555,7 +5556,7 @@
         <v>63</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>125</v>
@@ -5564,7 +5565,7 @@
         <v>44</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>44</v>
@@ -5572,7 +5573,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5598,14 +5599,14 @@
         <v>200</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>44</v>
@@ -5654,7 +5655,7 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5678,7 +5679,7 @@
         <v>44</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>44</v>
@@ -5686,7 +5687,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5712,13 +5713,13 @@
         <v>209</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="N38" t="s" s="2">
         <v>213</v>
@@ -5770,7 +5771,7 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -5794,7 +5795,7 @@
         <v>44</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>44</v>
@@ -5802,7 +5803,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5825,17 +5826,17 @@
         <v>44</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>44</v>
@@ -5884,7 +5885,7 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -5899,7 +5900,7 @@
         <v>63</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>125</v>
@@ -5908,7 +5909,7 @@
         <v>44</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>44</v>
@@ -5916,7 +5917,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5945,11 +5946,11 @@
         <v>218</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>44</v>
@@ -5977,10 +5978,10 @@
         <v>141</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>222</v>
+        <v>319</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>223</v>
+        <v>320</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>44</v>
@@ -5998,7 +5999,7 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -6013,7 +6014,7 @@
         <v>63</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>125</v>
@@ -6022,7 +6023,7 @@
         <v>44</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>44</v>
@@ -6030,7 +6031,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6056,14 +6057,14 @@
         <v>183</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>44</v>
@@ -6112,7 +6113,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6121,13 +6122,13 @@
         <v>51</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>63</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>125</v>
@@ -6136,7 +6137,7 @@
         <v>44</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>44</v>
@@ -6144,7 +6145,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6170,10 +6171,10 @@
         <v>176</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6224,7 +6225,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6239,7 +6240,7 @@
         <v>63</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>125</v>
@@ -6256,7 +6257,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6279,19 +6280,19 @@
         <v>44</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>44</v>
@@ -6340,7 +6341,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6355,10 +6356,10 @@
         <v>63</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>44</v>
@@ -6372,7 +6373,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6484,7 +6485,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6513,7 +6514,7 @@
         <v>98</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>100</v>
@@ -6598,11 +6599,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6624,10 +6625,10 @@
         <v>97</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>100</v>
@@ -6682,7 +6683,7 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -6714,7 +6715,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6740,16 +6741,16 @@
         <v>147</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>44</v>
@@ -6798,7 +6799,7 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>51</v>
@@ -6813,16 +6814,16 @@
         <v>63</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>44</v>
@@ -6830,7 +6831,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6856,16 +6857,16 @@
         <v>191</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>44</v>
@@ -6914,7 +6915,7 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -6929,16 +6930,16 @@
         <v>63</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>44</v>
@@ -6946,11 +6947,11 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -6969,16 +6970,16 @@
         <v>44</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7028,7 +7029,7 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7043,7 +7044,7 @@
         <v>63</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>125</v>
@@ -7052,7 +7053,7 @@
         <v>44</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>44</v>
@@ -7060,7 +7061,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7086,16 +7087,16 @@
         <v>183</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>44</v>
@@ -7144,7 +7145,7 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7159,10 +7160,10 @@
         <v>63</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>44</v>
@@ -7176,7 +7177,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7199,19 +7200,19 @@
         <v>52</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>44</v>
@@ -7260,7 +7261,7 @@
         <v>44</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7275,7 +7276,7 @@
         <v>63</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>125</v>
@@ -7292,7 +7293,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7404,7 +7405,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7433,7 +7434,7 @@
         <v>98</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>100</v>
@@ -7518,11 +7519,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7544,10 +7545,10 @@
         <v>97</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>100</v>
@@ -7602,7 +7603,7 @@
         <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -7634,7 +7635,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7657,16 +7658,16 @@
         <v>52</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7716,7 +7717,7 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>51</v>
@@ -7740,7 +7741,7 @@
         <v>44</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>44</v>
@@ -7748,7 +7749,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7774,10 +7775,10 @@
         <v>71</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7807,10 +7808,10 @@
         <v>141</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>44</v>
@@ -7828,7 +7829,7 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>51</v>
@@ -7843,7 +7844,7 @@
         <v>63</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>125</v>
